--- a/data/historical_estimates/raw/Perkins_etal_1994_Tables1_8.xlsx
+++ b/data/historical_estimates/raw/Perkins_etal_1994_Tables1_8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/historical_estimates/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAC416B-E86E-C847-9F32-D5620FE1D4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C2D70E-6438-654E-BB7C-F8B13A68A960}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1500" windowWidth="14880" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="1500" windowWidth="14880" windowHeight="17440" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="173">
   <si>
     <t>California Sea Lion</t>
   </si>
@@ -485,9 +485,6 @@
     <t>set_ccal</t>
   </si>
   <si>
-    <t>set_tot</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -507,6 +504,48 @@
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>July 1990-June 1991</t>
+  </si>
+  <si>
+    <t>April 1987-March 1988</t>
+  </si>
+  <si>
+    <t>April 1988-March 1989</t>
+  </si>
+  <si>
+    <t>April-December 1989</t>
+  </si>
+  <si>
+    <t>Jan-Dec 1990</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>Table 8</t>
+  </si>
+  <si>
+    <t>Perkins et al. 1994</t>
+  </si>
+  <si>
+    <t>Table 7</t>
+  </si>
+  <si>
+    <t>Table 6</t>
+  </si>
+  <si>
+    <t>Table 5</t>
+  </si>
+  <si>
+    <t>Table 4</t>
   </si>
 </sst>
 </file>
@@ -568,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -579,7 +618,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,9 +636,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -638,9 +676,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -673,9 +711,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -708,9 +763,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -884,475 +956,501 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I190"/>
+  <dimension ref="A1:K190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" t="s">
         <v>147</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>148</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" t="s">
         <v>157</v>
       </c>
-      <c r="D1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1987</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="D2" s="2">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="E2" s="2">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="F2" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="G2" s="2">
         <v>-6.8000000000000005E-2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="H2" s="2">
         <v>0.17699999999999999</v>
       </c>
-      <c r="G2" s="2">
+      <c r="I2" s="2">
         <v>-7.3999999999999996E-2</v>
       </c>
-      <c r="H2" s="2">
+      <c r="J2" s="2">
         <v>0.248</v>
       </c>
-      <c r="I2" s="2">
+      <c r="K2" s="2">
         <v>-0.14699999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1987</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="D3" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="E3" s="2">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="F3" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="G3" s="2">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="F3" s="2">
+      <c r="H3" s="2">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="I3" s="2">
         <v>-2.3E-2</v>
       </c>
-      <c r="H3" s="2">
+      <c r="J3" s="2">
         <v>0.22900000000000001</v>
       </c>
-      <c r="I3" s="2">
+      <c r="K3" s="2">
         <v>-0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1987</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
         <v>2.4E-2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="K4" s="2">
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D7" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="33" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="35" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="4"/>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-    </row>
-    <row r="46" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="56" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="61" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B61" s="1"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="33" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="35" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C42" s="4"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="44" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C44" s="5"/>
+    </row>
+    <row r="46" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="56" spans="3:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="3:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="3:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="3:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="61" spans="3:6" ht="14" x14ac:dyDescent="0.15">
       <c r="D61" s="1"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="3"/>
-      <c r="B67" s="4"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C67" s="3"/>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D68" s="4"/>
-    </row>
-    <row r="70" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="92" spans="1:1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="94" spans="1:1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="97" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A100" s="1"/>
-    </row>
-    <row r="101" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A102" s="1"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A104" s="4"/>
-      <c r="B104" s="3"/>
-    </row>
-    <row r="106" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A106" s="8"/>
-    </row>
-    <row r="108" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A108" s="1"/>
-    </row>
-    <row r="109" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A109" s="1"/>
-    </row>
-    <row r="110" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A110" s="1"/>
-    </row>
-    <row r="111" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A111" s="1"/>
-    </row>
-    <row r="112" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A112" s="1"/>
-    </row>
-    <row r="113" spans="1:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="A114" s="1"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B116" s="9"/>
-      <c r="E116" s="9"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="70" spans="3:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="3:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="3:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="3:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="3:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="3:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="3:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="92" spans="3:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="94" spans="3:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="3:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="97" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C102" s="1"/>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C104" s="4"/>
+      <c r="D104" s="3"/>
+    </row>
+    <row r="106" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C106" s="8"/>
+    </row>
+    <row r="108" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="3:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="3:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="C114" s="1"/>
+    </row>
+    <row r="116" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D116" s="9"/>
       <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B117" s="9"/>
-      <c r="E117" s="9"/>
+      <c r="I116" s="9"/>
+    </row>
+    <row r="117" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D117" s="9"/>
       <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
+      <c r="I117" s="9"/>
+    </row>
+    <row r="118" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+    </row>
+    <row r="119" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A120" s="9"/>
-      <c r="B120" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+    </row>
+    <row r="120" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A121" s="9"/>
-      <c r="B121" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+    </row>
+    <row r="121" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+    </row>
+    <row r="122" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+    </row>
+    <row r="123" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C123" s="9"/>
       <c r="G123" s="9"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A124" s="9"/>
-      <c r="B124" s="9"/>
-      <c r="G124" s="9"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A125" s="9"/>
-      <c r="B125" s="9"/>
-      <c r="G125" s="9"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A126" s="9"/>
-      <c r="B126" s="9"/>
-      <c r="G126" s="9"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A127" s="9"/>
-      <c r="B127" s="9"/>
-      <c r="G127" s="9"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A128" s="9"/>
-      <c r="B128" s="9"/>
-      <c r="G128" s="9"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A129" s="9"/>
-      <c r="B129" s="9"/>
-      <c r="G129" s="9"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A130" s="9"/>
-      <c r="B130" s="9"/>
-      <c r="G130" s="9"/>
-    </row>
-    <row r="132" spans="1:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="A132" s="1"/>
-    </row>
-    <row r="134" spans="1:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="A134" s="1"/>
-    </row>
-    <row r="135" spans="1:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="A135" s="1"/>
-    </row>
-    <row r="137" spans="1:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="A137" s="1"/>
-    </row>
-    <row r="138" spans="1:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="A138" s="1"/>
-    </row>
-    <row r="140" spans="1:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-    </row>
-    <row r="141" spans="1:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="A141" s="1"/>
-    </row>
-    <row r="143" spans="1:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="A143" s="1"/>
-    </row>
-    <row r="144" spans="1:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="A144" s="1"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A146" s="3"/>
-      <c r="B146" s="4"/>
-    </row>
-    <row r="148" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A148" s="8"/>
-    </row>
-    <row r="150" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A150" s="1"/>
-    </row>
-    <row r="151" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A151" s="1"/>
-    </row>
-    <row r="152" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A152" s="1"/>
-    </row>
-    <row r="153" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A153" s="1"/>
-    </row>
-    <row r="154" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A154" s="1"/>
-    </row>
-    <row r="155" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A155" s="1"/>
-    </row>
-    <row r="156" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A156" s="1"/>
-    </row>
-    <row r="174" spans="1:1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A174" s="1"/>
-    </row>
-    <row r="176" spans="1:1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A176" s="1"/>
-    </row>
-    <row r="177" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A177" s="1"/>
-    </row>
-    <row r="179" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A179" s="1"/>
-    </row>
-    <row r="180" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A180" s="1"/>
-    </row>
-    <row r="182" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A182" s="1"/>
-    </row>
-    <row r="183" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A183" s="1"/>
-    </row>
-    <row r="185" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A185" s="1"/>
-    </row>
-    <row r="186" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A186" s="1"/>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A188" s="4"/>
-      <c r="B188" s="3"/>
-    </row>
-    <row r="190" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A190" s="8"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+    </row>
+    <row r="124" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="I124" s="9"/>
+    </row>
+    <row r="125" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="I125" s="9"/>
+    </row>
+    <row r="126" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="I126" s="9"/>
+    </row>
+    <row r="127" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="I127" s="9"/>
+    </row>
+    <row r="128" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="I128" s="9"/>
+    </row>
+    <row r="129" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="I129" s="9"/>
+    </row>
+    <row r="130" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="I130" s="9"/>
+    </row>
+    <row r="132" spans="3:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="C132" s="1"/>
+    </row>
+    <row r="134" spans="3:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="3:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="C135" s="1"/>
+    </row>
+    <row r="137" spans="3:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="3:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="C138" s="1"/>
+    </row>
+    <row r="140" spans="3:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="3:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="C141" s="1"/>
+    </row>
+    <row r="143" spans="3:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="3:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="C144" s="1"/>
+    </row>
+    <row r="146" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C146" s="3"/>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="148" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C148" s="8"/>
+    </row>
+    <row r="150" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C152" s="1"/>
+    </row>
+    <row r="153" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C155" s="1"/>
+    </row>
+    <row r="156" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C156" s="1"/>
+    </row>
+    <row r="174" spans="3:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C174" s="1"/>
+    </row>
+    <row r="176" spans="3:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C176" s="1"/>
+    </row>
+    <row r="177" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C177" s="1"/>
+    </row>
+    <row r="179" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C179" s="1"/>
+    </row>
+    <row r="180" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C180" s="1"/>
+    </row>
+    <row r="182" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C182" s="1"/>
+    </row>
+    <row r="183" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C183" s="1"/>
+    </row>
+    <row r="185" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C185" s="1"/>
+    </row>
+    <row r="186" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C186" s="1"/>
+    </row>
+    <row r="188" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C188" s="4"/>
+      <c r="D188" s="3"/>
+    </row>
+    <row r="190" spans="3:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="C190" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1361,231 +1459,307 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC80757-17CE-6E42-AF77-B66DA9620200}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" t="s">
         <v>147</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>148</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1990</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="D2" s="1">
         <v>1.95E-2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E2" s="1">
         <v>-1.35E-2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="F2" s="1">
         <v>6.3399999999999998E-2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="G2" s="1">
         <v>-9.1699999999999993E-3</v>
       </c>
-      <c r="F2" s="2">
+      <c r="H2" s="2">
         <v>0.58299999999999996</v>
       </c>
-      <c r="G2" s="2">
+      <c r="I2" s="2">
         <v>-0.221</v>
       </c>
-      <c r="H2" s="2">
+      <c r="J2" s="2">
         <v>0.32800000000000001</v>
       </c>
-      <c r="I2" s="1">
+      <c r="K2" s="1">
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1990</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="D3" s="1">
         <v>4.8799999999999998E-3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="E3" s="1">
         <v>-4.6800000000000001E-3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="F3" s="1">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
         <v>-4.96E-3</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-5.8000000000000003E-2</v>
       </c>
       <c r="H3" s="2">
         <v>0.125</v>
       </c>
       <c r="I3" s="1">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="K3" s="1">
         <v>-3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1990</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="D4" s="1">
         <v>1.95E-2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="E4" s="1">
         <v>-9.4900000000000002E-3</v>
       </c>
-      <c r="D4" s="1">
+      <c r="F4" s="1">
         <v>1.5100000000000001E-3</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>-1.0300000000000001E-3</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
         <v>6.7699999999999996E-2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
         <v>-2.69E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1990</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <v>3.6499999999999998E-2</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
         <v>-1.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>1990</v>
+      </c>
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="D6" s="1">
         <v>8.2900000000000001E-2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="E6" s="1">
         <v>-3.27E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>1990</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
+      <c r="D7" s="1">
         <v>1.46E-2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="E7" s="1">
         <v>-1.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>1990</v>
+      </c>
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
+      <c r="D8" s="1">
         <v>1.46E-2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="E8" s="1">
         <v>-8.2100000000000003E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1990</v>
+      </c>
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
+      <c r="D9" s="1">
         <v>9.7599999999999996E-3</v>
       </c>
-      <c r="C9" s="1">
+      <c r="E9" s="1">
         <v>-6.62E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>1990</v>
+      </c>
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
+      <c r="D10" s="1">
         <v>9.7599999999999996E-3</v>
       </c>
-      <c r="C10" s="1">
+      <c r="E10" s="1">
         <v>-6.3800000000000003E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1990</v>
+      </c>
+      <c r="B11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1">
+      <c r="D11" s="1">
         <v>4.8799999999999998E-3</v>
       </c>
-      <c r="C11" s="1">
+      <c r="E11" s="1">
         <v>-4.7499999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>1990</v>
+      </c>
+      <c r="B12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1">
+      <c r="D12" s="1">
         <v>4.8799999999999998E-3</v>
       </c>
-      <c r="C12" s="1">
+      <c r="E12" s="1">
         <v>-4.6800000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="C14" s="1"/>
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="E14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1678,99 +1852,138 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA3AC41-418A-1C45-85F9-A70EC880A328}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" t="s">
         <v>159</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>148</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>151</v>
       </c>
-      <c r="F1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="I1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2">
+        <v>1988</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7">
+      <c r="E2" s="7">
         <v>6139</v>
       </c>
-      <c r="C2" s="7">
+      <c r="F2" s="7">
         <v>5600</v>
       </c>
-      <c r="D2" s="7">
+      <c r="G2" s="7">
         <v>1224</v>
       </c>
-      <c r="E2" s="7">
+      <c r="H2" s="7">
         <v>1025</v>
       </c>
-      <c r="F2" s="7">
+      <c r="I2" s="7">
         <v>7849</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3">
+        <v>1989</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7">
+      <c r="E3" s="7">
         <v>5904</v>
       </c>
-      <c r="C3" s="7">
+      <c r="F3" s="7">
         <v>3518</v>
       </c>
-      <c r="D3" s="7">
+      <c r="G3" s="7">
         <v>483</v>
       </c>
-      <c r="E3" s="7">
+      <c r="H3" s="7">
         <v>1043</v>
       </c>
-      <c r="F3" s="7">
+      <c r="I3" s="7">
         <v>5044</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4">
+        <v>1990</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="7">
+      <c r="E4" s="7">
         <v>5189</v>
       </c>
-      <c r="C4" s="7">
+      <c r="F4" s="7">
         <v>5610</v>
       </c>
-      <c r="D4" s="7">
+      <c r="G4" s="7">
         <v>568</v>
       </c>
-      <c r="E4" s="7">
+      <c r="H4" s="7">
         <v>945</v>
       </c>
-      <c r="F4" s="7">
+      <c r="I4" s="7">
         <v>7123</v>
       </c>
     </row>
@@ -1781,218 +1994,364 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB1A446-6B9A-5F46-918A-F8051716A30D}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" t="s">
         <v>147</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>148</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2">
+        <v>1990</v>
+      </c>
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1">
+      <c r="F2" s="1">
         <v>1.95E-2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="G2" s="1">
         <v>-1.35E-2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="H2" s="2">
         <v>0.19700000000000001</v>
       </c>
-      <c r="E2" s="1">
+      <c r="I2" s="1">
         <v>-2.8799999999999999E-2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="J2" s="1">
         <v>1.4</v>
       </c>
-      <c r="G2" s="1">
+      <c r="K2" s="1">
         <v>0.57499999999999996</v>
       </c>
-      <c r="H2" s="2">
+      <c r="L2" s="2">
         <v>0.79700000000000004</v>
       </c>
-      <c r="I2" s="2">
+      <c r="M2" s="2">
         <v>-0.127</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3">
+        <v>1990</v>
+      </c>
+      <c r="D3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1">
+      <c r="F3" s="1">
         <v>4.8799999999999998E-3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="G3" s="1">
         <v>-4.6800000000000001E-3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="H3" s="1">
         <v>7.2599999999999998E-2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="I3" s="1">
         <v>-1.55E-2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="J3" s="1">
         <v>0.3</v>
       </c>
-      <c r="G3" s="1">
+      <c r="K3" s="1">
         <v>0.151</v>
       </c>
-      <c r="H3" s="2">
+      <c r="L3" s="2">
         <v>0.30399999999999999</v>
       </c>
-      <c r="I3" s="1">
+      <c r="M3" s="1">
         <v>-7.8399999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4">
+        <v>1990</v>
+      </c>
+      <c r="D4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1">
+      <c r="F4" s="1">
         <v>1.95E-2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="G4" s="1">
         <v>-9.4900000000000002E-3</v>
       </c>
-      <c r="D4" s="1">
+      <c r="H4" s="1">
         <v>4.6800000000000001E-3</v>
       </c>
-      <c r="E4" s="1">
+      <c r="I4" s="1">
         <v>-3.1900000000000001E-3</v>
       </c>
-      <c r="F4" s="1">
+      <c r="J4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1">
+      <c r="K4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="2">
+      <c r="L4" s="2">
         <v>0.16500000000000001</v>
       </c>
-      <c r="I4" s="1">
+      <c r="M4" s="1">
         <v>-6.6699999999999995E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5">
+        <v>1990</v>
+      </c>
+      <c r="D5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="1">
+      <c r="L5" s="1">
         <v>8.8599999999999998E-2</v>
       </c>
-      <c r="I5" s="1">
+      <c r="M5" s="1">
         <v>-3.8699999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6">
+        <v>1990</v>
+      </c>
+      <c r="D6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1">
+      <c r="F6" s="1">
         <v>8.2900000000000001E-2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="G6" s="1">
         <v>-3.27E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7">
+        <v>1990</v>
+      </c>
+      <c r="D7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1">
+      <c r="F7" s="1">
         <v>1.46E-2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="G7" s="1">
         <v>-1.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8">
+        <v>1990</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1">
+      <c r="F8" s="1">
         <v>1.46E-2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="G8" s="1">
         <v>-8.2100000000000003E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9">
+        <v>1990</v>
+      </c>
+      <c r="D9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1">
+      <c r="F9" s="1">
         <v>9.7599999999999996E-3</v>
       </c>
-      <c r="C9" s="1">
+      <c r="G9" s="1">
         <v>-6.62E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10">
+        <v>1990</v>
+      </c>
+      <c r="D10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="1">
+      <c r="F10" s="1">
         <v>9.7599999999999996E-3</v>
       </c>
-      <c r="C10" s="1">
+      <c r="G10" s="1">
         <v>-6.3800000000000003E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11">
+        <v>1990</v>
+      </c>
+      <c r="D11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1">
+      <c r="F11" s="1">
         <v>4.8799999999999998E-3</v>
       </c>
-      <c r="C11" s="1">
+      <c r="G11" s="1">
         <v>-4.7499999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12">
+        <v>1990</v>
+      </c>
+      <c r="D12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="1">
+      <c r="F12" s="1">
         <v>4.8799999999999998E-3</v>
       </c>
-      <c r="C12" s="1">
+      <c r="G12" s="1">
         <v>-4.6800000000000001E-3</v>
       </c>
     </row>
@@ -2003,201 +2362,348 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" t="s">
         <v>147</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="K1" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2">
+        <v>1988</v>
+      </c>
+      <c r="D2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3">
+        <v>1988</v>
+      </c>
+      <c r="D3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4">
+        <v>1988</v>
+      </c>
+      <c r="D4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5">
+        <v>1988</v>
+      </c>
+      <c r="D5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6">
+        <v>1988</v>
+      </c>
+      <c r="D6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7">
+        <v>1988</v>
+      </c>
+      <c r="D7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8">
+        <v>1988</v>
+      </c>
+      <c r="D8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="K8" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9">
+        <v>1988</v>
+      </c>
+      <c r="D9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="K9" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10">
+        <v>1988</v>
+      </c>
+      <c r="D10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11">
+        <v>1988</v>
+      </c>
+      <c r="D11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="K11" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12">
+        <v>1988</v>
+      </c>
+      <c r="D12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="K12" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2208,199 +2714,346 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" t="s">
         <v>147</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="K1" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2">
+        <v>1989</v>
+      </c>
+      <c r="D2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3">
+        <v>1989</v>
+      </c>
+      <c r="D3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4">
+        <v>1989</v>
+      </c>
+      <c r="D4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5">
+        <v>1989</v>
+      </c>
+      <c r="D5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6">
+        <v>1989</v>
+      </c>
+      <c r="D6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7">
+        <v>1989</v>
+      </c>
+      <c r="D7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8">
+        <v>1989</v>
+      </c>
+      <c r="D8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="K8" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9">
+        <v>1989</v>
+      </c>
+      <c r="D9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="K9" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10">
+        <v>1989</v>
+      </c>
+      <c r="D10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11">
+        <v>1989</v>
+      </c>
+      <c r="D11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="K11" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12">
+        <v>1989</v>
+      </c>
+      <c r="D12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="K12" s="9" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2411,203 +3064,348 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D70990-646B-6043-BDB1-510C80A4D71A}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="F1" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="G1" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="H1" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="I1" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="J1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2">
+        <v>1990</v>
+      </c>
+      <c r="D2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="F2" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="G2" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="H2" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="I2" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="J2" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="K2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3">
+        <v>1990</v>
+      </c>
+      <c r="D3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="F3" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="G3" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="H3" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="I3" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="J3" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="K3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4">
+        <v>1990</v>
+      </c>
+      <c r="D4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="F4" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="G4" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="H4" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="I4" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="J4" t="s">
         <v>121</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="K4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5">
+        <v>1990</v>
+      </c>
+      <c r="D5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="I5" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="J5" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="K5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6">
+        <v>1990</v>
+      </c>
+      <c r="D6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="F6" t="s">
         <v>128</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="K6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7">
+        <v>1990</v>
+      </c>
+      <c r="D7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="F7" t="s">
         <v>131</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="K7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8">
+        <v>1990</v>
+      </c>
+      <c r="D8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="F8" t="s">
         <v>134</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="K8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9">
+        <v>1990</v>
+      </c>
+      <c r="D9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="F9" t="s">
         <v>137</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="K9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10">
+        <v>1990</v>
+      </c>
+      <c r="D10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="F10" t="s">
         <v>139</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="K10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11">
+        <v>1990</v>
+      </c>
+      <c r="D11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="F11" t="s">
         <v>142</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="K11" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12">
+        <v>1990</v>
+      </c>
+      <c r="D12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" t="s">
         <v>144</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="F12" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="K12" t="s">
         <v>146</v>
       </c>
     </row>
